--- a/template_examples/elisa_template.xlsx
+++ b/template_examples/elisa_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE2720D-7189-CE44-9756-5BA8AB03E9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C31DCDF-AF08-5049-86F8-BE48E7C665CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="7480" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9400" yWindow="12020" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELISA" sheetId="1" r:id="rId1"/>
@@ -80,12 +80,129 @@
         </r>
       </text>
     </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antibody type collected for this study.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Resulting type of antibody clone from primary antibody sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Company from which antibody sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antibody registry catalog number assigned to antibody sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identification number assigned to the particular quantity or lot of material from manufacturer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antibody isotype used to help differentiate antibody signals.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Concentration ratio of dilution buffer for primary antibody.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of staining method used for antibody.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>How this antibody should be used in automatic analysis</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="62">
   <si>
     <t>#t</t>
   </si>
@@ -108,12 +225,42 @@
     <t>Serology file</t>
   </si>
   <si>
+    <t>Antibodies</t>
+  </si>
+  <si>
     <t>#h</t>
   </si>
   <si>
     <t>#d</t>
   </si>
   <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Clone</t>
+  </si>
+  <si>
+    <t>Antibody company</t>
+  </si>
+  <si>
+    <t>Catalog number</t>
+  </si>
+  <si>
+    <t>Lot number</t>
+  </si>
+  <si>
+    <t>Isotope</t>
+  </si>
+  <si>
+    <t>Dilution</t>
+  </si>
+  <si>
+    <t>Stain_type</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
     <t>LEGEND</t>
   </si>
   <si>
@@ -141,6 +288,42 @@
     <t>XLSX ELISA results file name on a user's computer.</t>
   </si>
   <si>
+    <t>Section 'Antibodies' of tab 'ELISA'</t>
+  </si>
+  <si>
+    <t>Antibody type collected for this study.</t>
+  </si>
+  <si>
+    <t>Resulting type of antibody clone from primary antibody sample.</t>
+  </si>
+  <si>
+    <t>Company from which antibody sample was derived.</t>
+  </si>
+  <si>
+    <t>Antibody registry catalog number assigned to antibody sample.</t>
+  </si>
+  <si>
+    <t>Identification number assigned to the particular quantity or lot of material from manufacturer.</t>
+  </si>
+  <si>
+    <t>Antibody isotype used to help differentiate antibody signals.</t>
+  </si>
+  <si>
+    <t>Concentration ratio of dilution buffer for primary antibody.</t>
+  </si>
+  <si>
+    <t>Type of staining method used for antibody.</t>
+  </si>
+  <si>
+    <t>E.g. 'Surface Stain'</t>
+  </si>
+  <si>
+    <t>How this antibody should be used in automatic analysis</t>
+  </si>
+  <si>
+    <t>E.g. 'Ignored'</t>
+  </si>
+  <si>
     <t>DFCI</t>
   </si>
   <si>
@@ -153,6 +336,21 @@
     <t>MD Anderson</t>
   </si>
   <si>
+    <t>Surface Stain</t>
+  </si>
+  <si>
+    <t>Intracellular</t>
+  </si>
+  <si>
+    <t>Ignored</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Analysis Only</t>
+  </si>
+  <si>
     <t>test_prism_trial_id</t>
   </si>
   <si>
@@ -160,13 +358,43 @@
   </si>
   <si>
     <t>otest_prism_trial_id_run_1_ELISA.xlsx</t>
+  </si>
+  <si>
+    <t>C8/144b</t>
+  </si>
+  <si>
+    <t>C2/11p</t>
+  </si>
+  <si>
+    <t>CD8</t>
+  </si>
+  <si>
+    <t>DAKO</t>
+  </si>
+  <si>
+    <t>C8-ABC</t>
+  </si>
+  <si>
+    <t>146Nd</t>
+  </si>
+  <si>
+    <t>100X</t>
+  </si>
+  <si>
+    <t>PD-L1</t>
+  </si>
+  <si>
+    <t>C8-AB123</t>
+  </si>
+  <si>
+    <t>146Nb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +416,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2D2F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -262,10 +502,19 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -617,16 +866,23 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -634,10 +890,17 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -645,10 +908,17 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -656,10 +926,17 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -667,1021 +944,1130 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3983272</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1231272</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B7:J7"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{E0454DF8-722F-6F45-A1F9-D38726AD2BE7}">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I208" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Surface Stain,Intracellular"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J208" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"Ignored,Used,Analysis Only"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1691,7 +2077,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1701,13 +2087,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
-        <v>9</v>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -1715,10 +2101,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -1726,13 +2112,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -1740,10 +2126,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -1751,10 +2137,120 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +2261,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:B5"/>
+  <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1774,29 +2270,50 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/elisa_template.xlsx
+++ b/template_examples/elisa_template.xlsx
@@ -610,7 +610,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="5" t="inlineStr">
@@ -630,7 +630,7 @@
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="5" ht="32" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -727,7 +727,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,7 +799,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -899,7 +899,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B11" s="6" t="n"/>
@@ -907,1379 +907,1379 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/elisa_template.xlsx
+++ b/template_examples/elisa_template.xlsx
@@ -603,7 +603,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -723,7 +723,6 @@
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
@@ -2310,7 +2309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2318,6 +2317,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -2589,7 +2589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,6 +2597,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
